--- a/Alpha_Abundance_SoilProp_STAT.xlsx
+++ b/Alpha_Abundance_SoilProp_STAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifinabintarti/Documents/France/microservices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B4E92-5215-B341-A0BE-AF9025792D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597F010-1E69-3041-9C9D-981B09B2DEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A944618D-992E-6C45-9C30-6275FDB181D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{A944618D-992E-6C45-9C30-6275FDB181D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Alpha_Abundance" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -516,66 +516,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -586,15 +526,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,11 +541,53 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,7 +906,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,54 +926,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41" t="s">
+      <c r="K2" s="49"/>
+      <c r="L2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="41"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
@@ -1329,57 +1302,57 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42" t="s">
+      <c r="E12" s="49"/>
+      <c r="F12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42" t="s">
+      <c r="I12" s="49"/>
+      <c r="J12" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41" t="s">
+      <c r="K12" s="49"/>
+      <c r="L12" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="41"/>
+      <c r="M12" s="49"/>
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1708,55 +1681,55 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42" t="s">
+      <c r="E22" s="49"/>
+      <c r="F22" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42" t="s">
+      <c r="I22" s="49"/>
+      <c r="J22" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41" t="s">
+      <c r="K22" s="49"/>
+      <c r="L22" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="41"/>
+      <c r="M22" s="49"/>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
@@ -2082,49 +2055,49 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="15"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="41" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41" t="s">
+      <c r="C32" s="49"/>
+      <c r="D32" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41" t="s">
+      <c r="G32" s="49"/>
+      <c r="H32" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="41"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="15"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2365,57 +2338,57 @@
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40" t="s">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41" t="s">
+      <c r="G42" s="49"/>
+      <c r="H42" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="42" t="s">
+      <c r="I42" s="49"/>
+      <c r="J42" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41" t="s">
+      <c r="K42" s="49"/>
+      <c r="L42" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="41"/>
+      <c r="M42" s="49"/>
     </row>
     <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
@@ -2460,19 +2433,19 @@
       <c r="B44" s="22">
         <v>15.79</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="37">
         <v>8.4990000000000006</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="40">
         <v>0.437</v>
       </c>
-      <c r="G44" s="57" t="s">
+      <c r="G44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="9">
@@ -2481,7 +2454,7 @@
       <c r="I44" s="24">
         <v>0.03</v>
       </c>
-      <c r="J44" s="61">
+      <c r="J44" s="38">
         <v>3.907</v>
       </c>
       <c r="K44" s="6" t="s">
@@ -2501,10 +2474,10 @@
       <c r="B45" s="22">
         <v>1.4179999999999999</v>
       </c>
-      <c r="C45" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="60">
+      <c r="C45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="37">
         <v>7.1630000000000003</v>
       </c>
       <c r="E45" s="31">
@@ -2513,7 +2486,7 @@
       <c r="F45" s="12">
         <v>8.0459999999999994</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="9">
@@ -2522,7 +2495,7 @@
       <c r="I45" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="61">
+      <c r="J45" s="38">
         <v>57.350999999999999</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -2542,10 +2515,10 @@
       <c r="B46" s="22">
         <v>13.345000000000001</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="37">
         <v>1.8109999999999999</v>
       </c>
       <c r="E46" s="30" t="s">
@@ -2554,7 +2527,7 @@
       <c r="F46" s="12">
         <v>8.0510000000000002</v>
       </c>
-      <c r="G46" s="58" t="s">
+      <c r="G46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H46" s="9">
@@ -2563,7 +2536,7 @@
       <c r="I46" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="61">
+      <c r="J46" s="38">
         <v>9.5909999999999993</v>
       </c>
       <c r="K46" s="1">
@@ -2583,10 +2556,10 @@
       <c r="B47" s="22">
         <v>23.251000000000001</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="60">
+      <c r="D47" s="37">
         <v>0.34899999999999998</v>
       </c>
       <c r="E47" s="30" t="s">
@@ -2595,7 +2568,7 @@
       <c r="F47" s="12">
         <v>0.61099999999999999</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="9">
@@ -2604,7 +2577,7 @@
       <c r="I47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="61">
+      <c r="J47" s="38">
         <v>1.181</v>
       </c>
       <c r="K47" s="6" t="s">
@@ -2624,10 +2597,10 @@
       <c r="B48" s="22">
         <v>0.104</v>
       </c>
-      <c r="C48" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="60">
+      <c r="C48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="37">
         <v>1.653</v>
       </c>
       <c r="E48" s="30" t="s">
@@ -2636,7 +2609,7 @@
       <c r="F48" s="12">
         <v>4.0199999999999996</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H48" s="9">
@@ -2645,7 +2618,7 @@
       <c r="I48" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="61">
+      <c r="J48" s="38">
         <v>2.6179999999999999</v>
       </c>
       <c r="K48" s="6" t="s">
@@ -2665,10 +2638,10 @@
       <c r="B49" s="22">
         <v>0.309</v>
       </c>
-      <c r="C49" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="60">
+      <c r="C49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="37">
         <v>0.72</v>
       </c>
       <c r="E49" s="30" t="s">
@@ -2677,7 +2650,7 @@
       <c r="F49" s="12">
         <v>0.627</v>
       </c>
-      <c r="G49" s="57" t="s">
+      <c r="G49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="9">
@@ -2686,7 +2659,7 @@
       <c r="I49" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="61">
+      <c r="J49" s="38">
         <v>0.98399999999999999</v>
       </c>
       <c r="K49" s="6" t="s">
@@ -2706,19 +2679,19 @@
       <c r="B50" s="25">
         <v>1.0649999999999999</v>
       </c>
-      <c r="C50" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="60">
+      <c r="C50" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="37">
         <v>1.3580000000000001</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="41">
         <v>0.88</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="26" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="28">
@@ -2727,7 +2700,7 @@
       <c r="I50" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="62">
+      <c r="J50" s="39">
         <v>0.45800000000000002</v>
       </c>
       <c r="K50" s="26" t="s">
@@ -2741,57 +2714,57 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="36" t="s">
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="36" t="s">
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
     </row>
     <row r="52" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="37" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37" t="s">
+      <c r="C52" s="56"/>
+      <c r="D52" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="38" t="s">
+      <c r="E52" s="56"/>
+      <c r="F52" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37" t="s">
+      <c r="G52" s="56"/>
+      <c r="H52" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38" t="s">
+      <c r="I52" s="56"/>
+      <c r="J52" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37" t="s">
+      <c r="K52" s="56"/>
+      <c r="L52" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="37"/>
+      <c r="M52" s="56"/>
     </row>
     <row r="53" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2845,7 +2818,7 @@
       <c r="E54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="61">
+      <c r="F54" s="38">
         <v>23.62</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2886,7 +2859,7 @@
       <c r="E55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="61">
+      <c r="F55" s="38">
         <v>11.167</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -2927,7 +2900,7 @@
       <c r="E56" s="1">
         <v>0.01</v>
       </c>
-      <c r="F56" s="61">
+      <c r="F56" s="38">
         <v>13.904</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -2968,7 +2941,7 @@
       <c r="E57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="61">
+      <c r="F57" s="38">
         <v>0.82099999999999995</v>
       </c>
       <c r="G57" s="6" t="s">
@@ -3009,7 +2982,7 @@
       <c r="E58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="61">
+      <c r="F58" s="38">
         <v>2.39</v>
       </c>
       <c r="G58" s="6" t="s">
@@ -3050,7 +3023,7 @@
       <c r="E59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="61">
+      <c r="F59" s="38">
         <v>2.2120000000000002</v>
       </c>
       <c r="G59" s="6" t="s">
@@ -3091,7 +3064,7 @@
       <c r="E60" s="29">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="39">
         <v>3.4380000000000002</v>
       </c>
       <c r="G60" s="29" t="s">
@@ -3128,6 +3101,53 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -3138,53 +3158,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3215,28 +3188,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3263,172 +3236,172 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="42">
         <v>706.76599999999996</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="9">
         <v>56.994999999999997</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="9">
         <v>189.04900000000001</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="47"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="42">
         <v>6.2309999999999999</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="9">
         <v>376.26600000000002</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="9">
         <v>0.874</v>
       </c>
-      <c r="G5" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="42">
         <v>98.646000000000001</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="9">
         <v>5.9269999999999996</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="9">
         <v>22.013999999999999</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="47"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="42">
         <v>1.9910000000000001</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="52">
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
         <v>38.942</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="9">
         <v>36.392000000000003</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="47"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="42">
         <v>112.017</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="9">
         <v>24.512</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="9">
         <v>19.173999999999999</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="47"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="42">
         <v>0.67200000000000004</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="52">
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
         <v>3.984</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="9">
         <v>2.7269999999999999</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="47"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="43">
         <v>0.57499999999999996</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="55">
+      <c r="C10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="35">
         <v>5.6029999999999998</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="35">
         <v>1.9239999999999999</v>
       </c>
       <c r="G10" s="20" t="s">
@@ -3443,22 +3416,22 @@
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="56"/>
+      <c r="B22" s="36"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
+      <c r="B23" s="36"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="56"/>
+      <c r="B24" s="36"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="56"/>
+      <c r="B45" s="36"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="56"/>
+      <c r="B46" s="36"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="56"/>
+      <c r="B47" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
